--- a/Outputs/3. Prosumer percentage/Output Files/90/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/90/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385075.20481868</v>
+        <v>1342127.329404541</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114759</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>46.10516358593153</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>409.7501074768465</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>102.4250744012233</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>168.2974269741555</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>183.5942646825718</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>279.2866228785251</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="V7" t="n">
-        <v>110.4985779252868</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1138,22 +1138,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>76.12737917974412</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>213.1929497007513</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,10 +1299,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6601511077861</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>99.84653374711222</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>1.549670916643815</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396344</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1767,16 +1767,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>74.22026739856734</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1821,10 +1821,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>108.1339782417322</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>19.16787261288856</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.894352718055</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>50.87969315552492</v>
       </c>
       <c r="F22" t="n">
-        <v>25.41729070665392</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2295,16 +2295,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892128</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>121.9815308269506</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>82.55410916276236</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>94.28988211988224</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10.35273376234524</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>108.1339782417321</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>238.8846764929625</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>101.9929615813389</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7070662263541</v>
+        <v>165.3517427096767</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>47.97616502622241</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>851.5356804245488</v>
+        <v>1371.151733343031</v>
       </c>
       <c r="C2" t="n">
-        <v>828.675354478253</v>
+        <v>1348.291407396735</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268929</v>
+        <v>924.9987865817358</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151545</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449588</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884626</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516418</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>1338.611505491543</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.611505491543</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>1338.611505491543</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>1817.550429733971</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733971</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733971</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615874</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615874</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1676.751855212286</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="V2" t="n">
-        <v>1676.751855212286</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="W2" t="n">
-        <v>1280.360505512633</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="X2" t="n">
-        <v>868.6405066803804</v>
+        <v>1823.059875697163</v>
       </c>
       <c r="Y2" t="n">
-        <v>867.3436406756748</v>
+        <v>1417.722605652053</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000789</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231748</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231748</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231748</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="M3" t="n">
-        <v>328.5536830608376</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="N3" t="n">
-        <v>807.4926073032664</v>
+        <v>343.3471304404884</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545695</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.0614513592168</v>
+        <v>786.7047107178854</v>
       </c>
       <c r="C4" t="n">
-        <v>540.0888882381328</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="D4" t="n">
-        <v>376.7721153649035</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="E4" t="n">
-        <v>210.5639095177571</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>38.70213529231748</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231748</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231748</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.1934635164755</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773448</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453211</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375112</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303047</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822182</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048082</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1371.134084935735</v>
+        <v>1654.922316116176</v>
       </c>
       <c r="V4" t="n">
-        <v>1371.134084935735</v>
+        <v>1373.210848724204</v>
       </c>
       <c r="W4" t="n">
-        <v>1371.134084935735</v>
+        <v>1203.213447740209</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.57018838154</v>
+        <v>1203.213447740209</v>
       </c>
       <c r="Y4" t="n">
-        <v>902.2274200712825</v>
+        <v>976.870679429951</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1029.323819803441</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1450.469050099676</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1449.172184094971</v>
+        <v>953.8185080541547</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4223778677166</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4498147466326</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1330418734033</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4725,19 +4725,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
         <v>1807.311910299714</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.783518717527</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1377.93111489004</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1377.93111489004</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1151.588346579782</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1399.695077674639</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.834751728343</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,19 +4810,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.799903930471</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1415.503037925765</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
         <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>927.6499241754298</v>
+        <v>856.0490050883208</v>
       </c>
       <c r="C10" t="n">
-        <v>755.6773610543457</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D10" t="n">
-        <v>592.3605881811164</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E10" t="n">
-        <v>592.3605881811164</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2077.017554556506</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1796.83310605681</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1515.121638664839</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>1046.214973800386</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883225</v>
@@ -5041,25 +5041,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.226866224298</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C13" t="n">
-        <v>847.2543031032136</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9375302299843</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E13" t="n">
-        <v>517.7293243828378</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="F13" t="n">
-        <v>345.8675501573982</v>
+        <v>219.7520236338613</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1712.153331232334</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.300927404847</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1435.735603246621</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.392834936363</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,16 +5278,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
         <v>2988.069926596602</v>
@@ -5305,10 +5305,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>606.5662274551883</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C16" t="n">
-        <v>531.5962603859283</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D16" t="n">
-        <v>368.279487512699</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E16" t="n">
-        <v>202.0712816655526</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F16" t="n">
         <v>202.0712816655526</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859194</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031707</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.074964477512</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.7321961672538</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="17">
@@ -5518,13 +5518,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
         <v>2988.069926596602</v>
@@ -5551,10 +5551,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.799010768326</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.8982080594387</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>597.9256449383547</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.480477153186</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325699</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>960.0641767715043</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>960.0641767715043</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1039.296092721448</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C22" t="n">
-        <v>867.3235296003641</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="D22" t="n">
-        <v>704.0067567271348</v>
+        <v>491.8150867870612</v>
       </c>
       <c r="E22" t="n">
-        <v>537.7985508799883</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1540.491264859194</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W22" t="n">
-        <v>1265.638861031706</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X22" t="n">
-        <v>1265.638861031706</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y22" t="n">
-        <v>1039.296092721448</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,40 +5977,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6025,16 +6025,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W23" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X23" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y23" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.5863609803849</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.3781551332385</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>225.5163809077989</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>703.5067984699893</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>703.5067984699893</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2199.327751765662</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1919.143303265966</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1637.431835873995</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1362.579432046508</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.015535492313</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6727671820549</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>851.4325941215639</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>679.4600310004798</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>679.4600310004798</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1785.357631525569</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1510.505227698082</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1267.941331143888</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1041.59856283363</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3618.53926577585</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3446.566702654766</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3283.249929781537</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3117.04172393439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2945.179949708951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2945.179949708951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2945.179949708951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4309.90040662566</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4035.048002798173</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.048002798173</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3808.705234487915</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,37 +6925,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -6964,10 +6964,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>655.1318596602905</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="C37" t="n">
-        <v>483.1592965392065</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="D37" t="n">
-        <v>483.1592965392065</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E37" t="n">
-        <v>483.1592965392065</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F37" t="n">
-        <v>311.2975223137669</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>311.2975223137669</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7128,19 +7128,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1627.943692540797</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.056897064296</v>
+        <v>1346.232225148826</v>
       </c>
       <c r="W37" t="n">
-        <v>1314.204493236809</v>
+        <v>1071.379821321339</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.640596682614</v>
+        <v>828.8159247671442</v>
       </c>
       <c r="Y37" t="n">
-        <v>845.2978283723562</v>
+        <v>602.4731564568863</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7414,13 +7414,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7441,7 +7441,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7575,46 +7575,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="T43" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="U43" t="n">
-        <v>1829.474336362281</v>
+        <v>2068.655165173127</v>
       </c>
       <c r="V43" t="n">
-        <v>1829.474336362281</v>
+        <v>1786.943697781157</v>
       </c>
       <c r="W43" t="n">
-        <v>1554.621932534794</v>
+        <v>1512.091293953669</v>
       </c>
       <c r="X43" t="n">
-        <v>1312.058035980599</v>
+        <v>1269.527397399475</v>
       </c>
       <c r="Y43" t="n">
-        <v>1085.715267670341</v>
+        <v>1043.184629089217</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7660,10 +7660,10 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2112.580693338092</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U46" t="n">
-        <v>1832.396244838396</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1550.684777446425</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1550.684777446425</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.224004692665</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487778</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>501.3089991395935</v>
+        <v>40.61659560001331</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099927</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>315.8761216926513</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675102</v>
+        <v>54.62333717170315</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761907</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587972</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.258252009462</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1762876285937</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8388,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8458,22 +8458,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819479</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8534,13 +8534,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>459.5991032870438</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,7 +8549,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>408.4283502568324</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,10 +8935,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9026,10 +9026,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,19 +9412,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>744.2217369616194</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>314.6422086532173</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10123,16 +10123,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>967.5075822902267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>660.9541399377149</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11159,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>492.8628464086332</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M45" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>48.31958288295772</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>238.5885866720091</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>96.0325700913058</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>170.7603744763192</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>142.5157325316084</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>113.6664306331501</v>
       </c>
       <c r="F22" t="n">
-        <v>144.7258657765313</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42.61286918175955</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>158.3518451335966</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>70.25624166879274</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>88.41814881478155</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>34.22432756519501</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>38.49792752173624</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>68.15019490184626</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>43.67553778834466</v>
+        <v>112.0308613050221</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>192.1620925624305</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233357</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083724</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083723</v>
       </c>
-      <c r="C2" t="n">
-        <v>436832.0010083724</v>
-      </c>
       <c r="D2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="F2" t="n">
         <v>421522.8023530852</v>
       </c>
-      <c r="F2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="G2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="H2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="I2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="J2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="K2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="L2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="O2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="P2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530853</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695914</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361206</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701967</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210334.4692373669</v>
+        <v>213355.3825178961</v>
       </c>
       <c r="C4" t="n">
-        <v>198868.2259634904</v>
+        <v>202173.9963170526</v>
       </c>
       <c r="D4" t="n">
-        <v>198868.2259634904</v>
+        <v>202173.9963170526</v>
       </c>
       <c r="E4" t="n">
-        <v>99355.60991791054</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="F4" t="n">
-        <v>99355.60991791054</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="G4" t="n">
-        <v>99355.60991791055</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="H4" t="n">
-        <v>99355.60991791052</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="I4" t="n">
-        <v>99355.60991791057</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="J4" t="n">
-        <v>99355.60991791057</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="K4" t="n">
-        <v>99355.60991791058</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="L4" t="n">
-        <v>99355.60991791057</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="M4" t="n">
-        <v>99355.60991791058</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="N4" t="n">
-        <v>99355.60991791059</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="O4" t="n">
-        <v>99355.60991791057</v>
+        <v>104844.1442546969</v>
       </c>
       <c r="P4" t="n">
-        <v>99355.60991791057</v>
+        <v>104844.1442546969</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216128</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1331.612879252723</v>
+        <v>-1689.300401276065</v>
       </c>
       <c r="C6" t="n">
-        <v>147110.6903338418</v>
+        <v>143804.9199802793</v>
       </c>
       <c r="D6" t="n">
-        <v>170517.5240074538</v>
+        <v>167211.7536538916</v>
       </c>
       <c r="E6" t="n">
-        <v>28677.77369010443</v>
+        <v>22678.93273147514</v>
       </c>
       <c r="F6" t="n">
-        <v>244417.1302467451</v>
+        <v>238418.2892881156</v>
       </c>
       <c r="G6" t="n">
-        <v>244417.1302467451</v>
+        <v>238418.2892881157</v>
       </c>
       <c r="H6" t="n">
-        <v>244417.1302467452</v>
+        <v>238418.2892881158</v>
       </c>
       <c r="I6" t="n">
-        <v>244417.1302467451</v>
+        <v>238418.2892881157</v>
       </c>
       <c r="J6" t="n">
-        <v>117839.8616664562</v>
+        <v>111841.020707827</v>
       </c>
       <c r="K6" t="n">
-        <v>225770.5298897254</v>
+        <v>219771.6889310959</v>
       </c>
       <c r="L6" t="n">
-        <v>244417.1302467451</v>
+        <v>238418.2892881157</v>
       </c>
       <c r="M6" t="n">
-        <v>64353.25879157755</v>
+        <v>58354.41783294817</v>
       </c>
       <c r="N6" t="n">
-        <v>244417.1302467452</v>
+        <v>238418.2892881157</v>
       </c>
       <c r="O6" t="n">
-        <v>244417.1302467452</v>
+        <v>238418.2892881157</v>
       </c>
       <c r="P6" t="n">
-        <v>244417.1302467452</v>
+        <v>238418.2892881157</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539684</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>369.5447170626832</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>9.309587130003194</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>174.9575296134755</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>103.8064528150566</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>239.037458004261</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>128.3161759654051</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>162.2770323843593</v>
       </c>
       <c r="V7" t="n">
-        <v>168.3957747927646</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>342.9323154271056</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>194.4098491431789</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.4830053753991</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.0594205492468</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>462.9969567069706</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539685</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>292.7793411803233</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539685</v>
+        <v>33.28030895816148</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.29359755675</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>94.42738665299332</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35108,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35178,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>48.74406945557187</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35254,22 +35254,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,10 +35655,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,19 +36132,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>706.646375151388</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36843,16 +36843,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>930.2279594557806</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>623.5228770382831</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115403</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -38028,13 +38028,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4718870526091</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M45" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
